--- a/October'21/30.10.2021/Daily Sales Info.xlsx
+++ b/October'21/30.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -878,7 +878,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 15
@@ -894,7 +894,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -903,7 +903,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aliul Sale 50</t>
@@ -918,7 +918,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -927,7 +927,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aliul Sale 50</t>
@@ -942,7 +942,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -951,7 +951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aliul Sale 10</t>
@@ -1640,7 +1640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,19 +1777,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -54138,7 +54125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
@@ -59591,8 +59578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
